--- a/biology/Zoologie/Goniurosaurus_kwanghua/Goniurosaurus_kwanghua.xlsx
+++ b/biology/Zoologie/Goniurosaurus_kwanghua/Goniurosaurus_kwanghua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniurosaurus kwanghua est une espèce de geckos de la famille des Eublepharidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'ile de Hainan en Chine
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un gekko d'une taille totale d'environ 130,7mm et d'une queue d'environ 40,5mm son corps est recouvert d'écaille noires avec 4 bandes blanches sur la largeur de son corps.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique de cette espèce vient de l'Université Kwang Hua a Shangaï 
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Xiao-Yu Zhu, Chu-Ze Shen, Yun-Fei Liu, Lin Chen, Zheng Li &amp; Zhu-Qing He « A new species of Goniurosaurus from Hainan Island, China based on molecular  and morphological data (Squamata: Sauria: Eublepharidae) », ResearchGate, Magnolia Press, vol. 4772, no 2, 8 mai 2020, p. 349–360 (Texte intégal)</t>
         </is>
